--- a/results/mp/deberta/corona/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.1/avg_0.004_scores.xlsx
@@ -88,16 +88,16 @@
     <t>better</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1009,25 +1009,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6609442060085837</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1035,25 +1035,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1061,25 +1061,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6534653465346535</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L18">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="M18">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="N18">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1087,13 +1087,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.647887323943662</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L19">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="M19">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1191,25 +1191,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5487804878048781</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L23">
         <v>180</v>
       </c>
       <c r="M23">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="10:17">
